--- a/temp-data.xlsx
+++ b/temp-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbkie\Udacity\temperature-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{7F06C97C-3544-439F-AA39-70421CE31650}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{B42E4C3F-BB9F-4FA8-B4E9-E4C26E3C5D1B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20052" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3"/>
+    <workbookView xWindow="66132" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="MA window size =5" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>year</t>
   </si>
@@ -41,6 +41,12 @@
   </si>
   <si>
     <t>verify SQL results for moving average for Detroit</t>
+  </si>
+  <si>
+    <t>global temperaure</t>
+  </si>
+  <si>
+    <t>Detroit temperature</t>
   </si>
 </sst>
 </file>
@@ -4168,7 +4174,7 @@
               <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Temperature Trend Comparison, Detroit vs. Global</a:t>
+              <a:t>Detroit and Global Temperatures Based on a 10 Year Moving  Average</a:t>
             </a:r>
             <a:endParaRPr lang="en-US">
               <a:effectLst/>
@@ -4180,7 +4186,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.24371496489298319"/>
+          <c:x val="0.11461226332422821"/>
           <c:y val="1.4151386406073158E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -4228,7 +4234,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>detroit_moving_avg_t</c:v>
+                  <c:v>Detroit temperature</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5863,7 +5869,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>global_moving_avg_t</c:v>
+                  <c:v>global temperaure</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7508,6 +7514,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Calendar Year</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -7526,7 +7587,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-2700000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -7550,6 +7611,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickMarkSkip val="10"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -7573,6 +7635,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Moving Average Temperature (°C)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -7606,7 +7723,7 @@
         </c:txPr>
         <c:crossAx val="2111407183"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -7617,12 +7734,14 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -9186,7 +9305,7 @@
   <dimension ref="A1:F265"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14771,8 +14890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E265"/>
   <sheetViews>
-    <sheetView topLeftCell="A238" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14793,10 +14912,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
